--- a/Definicion de BdSysSchool.xlsx
+++ b/Definicion de BdSysSchool.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>Incripcion</t>
   </si>
@@ -74,13 +74,34 @@
   </si>
   <si>
     <t>Seccion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROFESOR </t>
+  </si>
+  <si>
+    <t>IdProfesor</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Cedula</t>
+  </si>
+  <si>
+    <t>Meterias</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Activo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +114,14 @@
       <color theme="1"/>
       <name val="Arial Black"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,9 +144,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,15 +464,18 @@
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -455,8 +488,14 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -469,8 +508,14 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -483,48 +528,84 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -532,7 +613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -540,7 +621,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
